--- a/biology/Botanique/Philodendron_burle-marxii/Philodendron_burle-marxii.xlsx
+++ b/biology/Botanique/Philodendron_burle-marxii/Philodendron_burle-marxii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Philodendron burle-marxii est une espèce de plantes épiphytes de la famille des Araceae[1].
-Il pousse principalement dans le biome tropical humide[1]. Son aire de répartition naturelle est l'Amérique du Sud et s'étend de la Colombie à l'Équateur et au Nord du Brésil[1].
-Nommé d'après l'architecte paysagiste Roberto Burle Marx[2],[3], c'est l'une des plus de 50 plantes qui portent son nom[4]. Cet aroïde aux étamines hypogées peut grimper et a des feuilles vertes en forme de cœur[5].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Philodendron burle-marxii est une espèce de plantes épiphytes de la famille des Araceae.
+Il pousse principalement dans le biome tropical humide. Son aire de répartition naturelle est l'Amérique du Sud et s'étend de la Colombie à l'Équateur et au Nord du Brésil.
+Nommé d'après l'architecte paysagiste Roberto Burle Marx c'est l'une des plus de 50 plantes qui portent son nom. Cet aroïde aux étamines hypogées peut grimper et a des feuilles vertes en forme de cœur.
 Le Philodendron Burle marxii panaché est sa variété qui présente des feuilles de coloration jaune et blanche.
 </t>
         </is>
@@ -514,9 +526,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Philodendron burle-marxii G.M.Barroso (d)[6].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Philodendron burle-marxii G.M.Barroso (d).
 </t>
         </is>
       </c>
